--- a/BT_BOM.xlsx
+++ b/BT_BOM.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wondr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\BoxTurtle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E915DD-A366-4C6C-9A37-26E9CB998880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CF0B5-8C8B-4EEB-BFD9-4DE33B2E3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31850" yWindow="2330" windowWidth="22490" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="For E-Spooler" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>Category</t>
   </si>
@@ -215,6 +229,96 @@
   </si>
   <si>
     <t>PG7 Cable Strain Relief</t>
+  </si>
+  <si>
+    <t>Number of E-spools to be built</t>
+  </si>
+  <si>
+    <t>Quantity pr E-spooler</t>
+  </si>
+  <si>
+    <t>Total amount</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>M3X8 BHCS</t>
+  </si>
+  <si>
+    <t>M3X6 BHCS</t>
+  </si>
+  <si>
+    <t>M5X12 SHCS</t>
+  </si>
+  <si>
+    <t>M2X10 SHCS</t>
+  </si>
+  <si>
+    <t>Normal thread or selfcutting</t>
+  </si>
+  <si>
+    <t>M3X25 SHCS</t>
+  </si>
+  <si>
+    <t>M3X10 SHCS</t>
+  </si>
+  <si>
+    <t>M3X8 SHCS</t>
+  </si>
+  <si>
+    <t>M3 Heat Set Insert</t>
+  </si>
+  <si>
+    <t>D2F Straight Microswitch</t>
+  </si>
+  <si>
+    <t>MR148</t>
+  </si>
+  <si>
+    <t>MR63</t>
+  </si>
+  <si>
+    <t>ECAS Bowden Collet</t>
+  </si>
+  <si>
+    <t>RGBW LED PCB</t>
+  </si>
+  <si>
+    <t>6X3 magnet</t>
+  </si>
+  <si>
+    <t>M8X80 Shaft</t>
+  </si>
+  <si>
+    <t>01L (With lever)</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/4000071338221.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005006291065081.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005002897983868.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005001971988539.html</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 T Slot extrusion </t>
+  </si>
+  <si>
+    <t>400mm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005003428294239.html</t>
   </si>
 </sst>
 </file>
@@ -321,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -332,14 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
@@ -347,12 +443,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -363,6 +529,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{651D530D-6031-4DCD-BACA-26583B96BD75}" name="Tabel1" displayName="Tabel1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E39" xr:uid="{651D530D-6031-4DCD-BACA-26583B96BD75}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D8AFC925-6EB6-4B0F-B213-6C0CCACBBDD8}" name="Category" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1FA8C87D-3A17-4BF0-941F-A577406DA581}" name="Item" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D699BDE6-875A-45D4-86CE-AF54918F06B2}" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{65C79CC5-2A63-4D7A-85AC-98EB1E0B9B94}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AD6F5EDB-E387-4A2B-8428-06FFE0964FE6}" name="Links" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}" name="Tabel3" displayName="Tabel3" ref="A1:H19" totalsRowCount="1">
+  <autoFilter ref="A1:H18" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{74A81C68-5648-455F-A572-8061D826B708}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F352A00B-09DC-4AEC-8DCA-F010B9858C33}" name="Item"/>
+    <tableColumn id="3" xr3:uid="{F60A5904-A2CD-4D4D-94EA-2E03535BDE03}" name="Quantity pr E-spooler"/>
+    <tableColumn id="4" xr3:uid="{03151C9F-E966-4E9E-8E37-5D92DD43DA9C}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{DE5C7D4F-E08F-475A-B619-3E9F09111854}" name="Links" dataCellStyle="Link" totalsRowCellStyle="Link"/>
+    <tableColumn id="6" xr3:uid="{AF2188D6-A985-4D55-811F-462646B41801}" name="Total amount">
+      <calculatedColumnFormula>C2*J$1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7947DE0E-E2A5-466B-ACBE-0E5F33DE552C}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{44937A52-4705-41A7-AB04-25C029223EC8}" name="Total" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,44 +851,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -697,14 +896,14 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -712,288 +911,288 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="3">
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="3">
         <v>16</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="4">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="5">
         <v>78</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="5">
         <v>16</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>70</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="5">
         <v>8</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="6">
         <v>20</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="6">
         <v>4</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1001,91 +1200,91 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="7">
         <v>4</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="7">
         <v>4</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="7">
         <v>8</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="7">
         <v>20</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
@@ -1098,7 +1297,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
@@ -1111,92 +1310,92 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="9">
         <v>2</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="9">
         <v>4</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="9">
         <v>4</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="9">
         <v>2</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="1">
         <v>12</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="1">
         <v>12</v>
       </c>
       <c r="D39" s="1"/>
@@ -1217,5 +1416,445 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <tableParts count="1">
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947B483-84CE-4FD6-8584-76DFB3D833DC}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <f>C2*J$1</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>G2*J$1</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">C3*J$1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>135</v>
+      </c>
+      <c r="H16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <f>G17*3</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f>G18*3</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="H19">
+        <f>SUBTOTAL(109,Tabel3[Total])</f>
+        <v>846</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{134E8B56-60E0-47C7-B53E-EDDAF31373EB}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{B85CF2CB-B148-45CA-ACD3-CE6EE11AE589}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{3A2EBCDA-6F0F-4CBB-8B4A-45AAFFF48C35}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{FE4A1033-FDAA-4449-B617-EBE2B6370FD4}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{503F18D9-A6A8-4748-B2D5-059CE8391F21}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{23C8229A-5780-4370-92A9-F68982471175}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{32EFC75A-3BDA-4764-85DD-010C1CACCBBE}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{33F1AC8F-33F9-4F73-93F5-CA18E21B67DC}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{FA107138-D699-4132-B830-2C4DCEB128B1}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{4D9F7435-E7C2-4AE2-B240-F31F273B3C20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/BT_BOM.xlsx
+++ b/BT_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\BoxTurtle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CF0B5-8C8B-4EEB-BFD9-4DE33B2E3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E5EB5-762E-4C0D-8E87-B74EFC475ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>Category</t>
   </si>
@@ -319,12 +319,30 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/1005003428294239.html</t>
+  </si>
+  <si>
+    <t>DRV8833 Motor Controller</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005006282457232.html</t>
+  </si>
+  <si>
+    <t>M3 T-nut</t>
+  </si>
+  <si>
+    <t>M5 T-Nut</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/1005003678960619.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;kr.&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -446,29 +464,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0\ &quot;kr.&quot;"/>
+    </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color theme="10"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0\ &quot;kr.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0\ &quot;kr.&quot;"/>
     </dxf>
     <dxf>
       <fill>
@@ -518,6 +546,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -532,33 +578,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{651D530D-6031-4DCD-BACA-26583B96BD75}" name="Tabel1" displayName="Tabel1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{651D530D-6031-4DCD-BACA-26583B96BD75}" name="Tabel1" displayName="Tabel1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E39" xr:uid="{651D530D-6031-4DCD-BACA-26583B96BD75}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8AFC925-6EB6-4B0F-B213-6C0CCACBBDD8}" name="Category" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1FA8C87D-3A17-4BF0-941F-A577406DA581}" name="Item" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D699BDE6-875A-45D4-86CE-AF54918F06B2}" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{65C79CC5-2A63-4D7A-85AC-98EB1E0B9B94}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AD6F5EDB-E387-4A2B-8428-06FFE0964FE6}" name="Links" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D8AFC925-6EB6-4B0F-B213-6C0CCACBBDD8}" name="Category" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1FA8C87D-3A17-4BF0-941F-A577406DA581}" name="Item" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D699BDE6-875A-45D4-86CE-AF54918F06B2}" name="Quantity" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{65C79CC5-2A63-4D7A-85AC-98EB1E0B9B94}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AD6F5EDB-E387-4A2B-8428-06FFE0964FE6}" name="Links" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}" name="Tabel3" displayName="Tabel3" ref="A1:H19" totalsRowCount="1">
-  <autoFilter ref="A1:H18" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}" name="Tabel3" displayName="Tabel3" ref="A1:H22" totalsRowCount="1">
+  <autoFilter ref="A1:H21" xr:uid="{54564CB7-53BA-495B-8F45-142E62384A08}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{74A81C68-5648-455F-A572-8061D826B708}" name="Category" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F352A00B-09DC-4AEC-8DCA-F010B9858C33}" name="Item"/>
     <tableColumn id="3" xr3:uid="{F60A5904-A2CD-4D4D-94EA-2E03535BDE03}" name="Quantity pr E-spooler"/>
     <tableColumn id="4" xr3:uid="{03151C9F-E966-4E9E-8E37-5D92DD43DA9C}" name="Notes"/>
-    <tableColumn id="5" xr3:uid="{DE5C7D4F-E08F-475A-B619-3E9F09111854}" name="Links" dataCellStyle="Link" totalsRowCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{DE5C7D4F-E08F-475A-B619-3E9F09111854}" name="Links" totalsRowDxfId="1" dataCellStyle="Link"/>
     <tableColumn id="6" xr3:uid="{AF2188D6-A985-4D55-811F-462646B41801}" name="Total amount">
       <calculatedColumnFormula>C2*J$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7947DE0E-E2A5-466B-ACBE-0E5F33DE552C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{44937A52-4705-41A7-AB04-25C029223EC8}" name="Total" totalsRowFunction="sum"/>
+    <tableColumn id="7" xr3:uid="{7947DE0E-E2A5-466B-ACBE-0E5F33DE552C}" name="Price" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{44937A52-4705-41A7-AB04-25C029223EC8}" name="Total" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1424,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947B483-84CE-4FD6-8584-76DFB3D833DC}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1485,7 @@
     <col min="5" max="5" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1492,10 +1538,10 @@
         <f>C2*J$1</f>
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="18">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="18">
         <f>G2*J$1</f>
         <v>192</v>
       </c>
@@ -1514,9 +1560,11 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">C3*J$1</f>
+        <f t="shared" ref="F3:F21" si="0">C3*J$1</f>
         <v>24</v>
       </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1538,10 +1586,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="18">
         <v>110</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="18">
         <v>110</v>
       </c>
     </row>
@@ -1550,38 +1598,43 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="18">
+        <v>42</v>
+      </c>
+      <c r="H5" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="18">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="18">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,7 +1642,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1598,116 +1651,116 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="G12">
-        <v>32</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="G13" s="18">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,23 +1768,26 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G14">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="G14" s="18">
+        <v>45</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1739,122 +1795,200 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="18">
+        <v>32</v>
+      </c>
+      <c r="H15" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="G16" s="18">
         <v>78</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="18">
         <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>135</v>
-      </c>
-      <c r="H16">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17">
+        <f>C17*J$1</f>
+        <v>24</v>
+      </c>
+      <c r="G17" s="18">
+        <v>55</v>
+      </c>
+      <c r="H17" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <f>C18*J$1</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="18">
+        <v>44</v>
+      </c>
+      <c r="H18" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="18">
+        <v>135</v>
+      </c>
+      <c r="H19" s="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G17">
+      <c r="G20" s="18">
         <v>30</v>
       </c>
-      <c r="H17">
-        <f>G17*3</f>
+      <c r="H20" s="18">
+        <f>G20*3</f>
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G18">
+      <c r="G21" s="18">
         <v>24</v>
       </c>
-      <c r="H18">
-        <f>G18*3</f>
+      <c r="H21" s="18">
+        <f>G21*3</f>
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="H19">
+      <c r="E22" s="17"/>
+      <c r="H22" s="18">
         <f>SUBTOTAL(109,Tabel3[Total])</f>
-        <v>846</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{134E8B56-60E0-47C7-B53E-EDDAF31373EB}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{134E8B56-60E0-47C7-B53E-EDDAF31373EB}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{B85CF2CB-B148-45CA-ACD3-CE6EE11AE589}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{3A2EBCDA-6F0F-4CBB-8B4A-45AAFFF48C35}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{FE4A1033-FDAA-4449-B617-EBE2B6370FD4}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{503F18D9-A6A8-4748-B2D5-059CE8391F21}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{23C8229A-5780-4370-92A9-F68982471175}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{3A2EBCDA-6F0F-4CBB-8B4A-45AAFFF48C35}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{FE4A1033-FDAA-4449-B617-EBE2B6370FD4}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{503F18D9-A6A8-4748-B2D5-059CE8391F21}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{23C8229A-5780-4370-92A9-F68982471175}"/>
     <hyperlink ref="E4" r:id="rId7" xr:uid="{32EFC75A-3BDA-4764-85DD-010C1CACCBBE}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{33F1AC8F-33F9-4F73-93F5-CA18E21B67DC}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{FA107138-D699-4132-B830-2C4DCEB128B1}"/>
-    <hyperlink ref="E16" r:id="rId10" xr:uid="{4D9F7435-E7C2-4AE2-B240-F31F273B3C20}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{33F1AC8F-33F9-4F73-93F5-CA18E21B67DC}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{FA107138-D699-4132-B830-2C4DCEB128B1}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{4D9F7435-E7C2-4AE2-B240-F31F273B3C20}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{35E77FDC-FC92-422D-97F5-F3375AE96709}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{598DB85A-0664-4D22-A205-E3B12E7ABBE4}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{BCF220BF-B9EA-483A-B2FA-A9A237C7B7BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>